--- a/Excel/customer.xlsx
+++ b/Excel/customer.xlsx
@@ -1263,17 +1263,17 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bình thường</t>
+          <t>Bạch Kim</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t/>
+          <t>29-08-2022</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t/>
+          <t>29-08-2024</t>
         </is>
       </c>
     </row>

--- a/Excel/customer.xlsx
+++ b/Excel/customer.xlsx
@@ -61,7 +61,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -71,7 +71,7 @@
     <col min="2" max="2" width="19.5234375" customWidth="true"/>
     <col min="3" max="3" width="12.6640625" customWidth="true"/>
     <col min="4" max="4" width="9.1953125" customWidth="true"/>
-    <col min="5" max="5" width="7.5546875" customWidth="true"/>
+    <col min="5" max="5" width="14.41796875" customWidth="true"/>
     <col min="6" max="6" width="18.99609375" customWidth="true"/>
     <col min="7" max="7" width="16.67578125" customWidth="true"/>
     <col min="8" max="8" width="11.5703125" customWidth="true"/>
@@ -596,12 +596,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CUS009</t>
+          <t>CUS012</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tuấn Khải</t>
+          <t>Minh Khôi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>khai@gmail.com</t>
+          <t>khoi@gmail.com</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -636,29 +636,29 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bình thường</t>
+          <t>Bạch Kim</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t/>
+          <t>28-05-2023</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t/>
+          <t>28-07-2024</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CUS010</t>
+          <t>CUS015</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Huy Hoàng</t>
+          <t>Quốc Tiến</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>hoang@gmail.com</t>
+          <t>tien@gmail.com</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -693,29 +693,29 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bình thường</t>
+          <t>Bạc</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t/>
+          <t>28-06-2023</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t/>
+          <t>28-07-2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CUS011</t>
+          <t>CUS016</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hải Nam</t>
+          <t>Đức Thắng</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>nam@gmail.com</t>
+          <t>thang@gmail.com</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -750,29 +750,29 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Vàng</t>
+          <t>Bình thường</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>28-10-2023</t>
+          <t/>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>28-07-2024</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CUS012</t>
+          <t>CUS017</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Minh Khôi</t>
+          <t>Kim Phú</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>khoi@gmail.com</t>
+          <t>phu@gmail.com</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -807,29 +807,29 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bạch Kim</t>
+          <t>Bình thường</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>28-05-2023</t>
+          <t/>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>28-07-2024</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CUS013</t>
+          <t>CUS018</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Như Quỳnh</t>
+          <t>Quốc Cường</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>quynh@gmail.com</t>
+          <t>cuong@gmail.com</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -859,17 +859,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Bạch Kim</t>
+          <t>Bạc</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>28-03-2023</t>
+          <t>28-12-2023</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -881,12 +881,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CUS014</t>
+          <t>CUS019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yến Nhi</t>
+          <t>Quốc Đại</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>nhi@gmail.com</t>
+          <t>dai@gmail.com</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -916,34 +916,34 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bạc</t>
+          <t>Bình thường</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>28-10-2023</t>
+          <t/>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>28-07-2024</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CUS015</t>
+          <t>CUS020</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Quốc Tiến</t>
+          <t>Bình Hải</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>tien@gmail.com</t>
+          <t>hai2@gmail.com</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -978,29 +978,29 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bạc</t>
+          <t>Bình thường</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>28-06-2023</t>
+          <t/>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>28-07-2024</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CUS016</t>
+          <t>CUS021</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Đức Thắng</t>
+          <t>Mỹ Ngọc</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>thang@gmail.com</t>
+          <t>ngoc@gmail.com</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1052,12 +1052,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CUS017</t>
+          <t>CUS022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kim Phú</t>
+          <t>Việt Hùng</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>phu@gmail.com</t>
+          <t>hung@gmail.com</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1092,29 +1092,29 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Bình thường</t>
+          <t>Bạc</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t/>
+          <t>28-09-2023</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t/>
+          <t>28-07-2024</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CUS018</t>
+          <t>CUS023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Quốc Cường</t>
+          <t>Minh Quang</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuong@gmail.com</t>
+          <t>quang@gmail.com</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>28-12-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1166,12 +1166,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CUS019</t>
+          <t>CUS024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Quốc Đại</t>
+          <t>Hiếu Ngân</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>dai@gmail.com</t>
+          <t>ngan@gmail.com</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1223,12 +1223,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CUS020</t>
+          <t>CUS025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bình Hải</t>
+          <t>Diễm Quỳnh</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>hai2@gmail.com</t>
+          <t>quynh2@gmail.com</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1258,34 +1258,34 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nam</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bạch Kim</t>
+          <t>Vàng</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>29-08-2022</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>29-08-2024</t>
+          <t>28-07-2024</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CUS021</t>
+          <t>CUS026</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mỹ Ngọc</t>
+          <t>Minh Nghị</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ngoc@gmail.com</t>
+          <t>nghi@gmail.com</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1337,12 +1337,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CUS022</t>
+          <t>CUS027</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Việt Hùng</t>
+          <t>Duy Thành</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>hung@gmail.com</t>
+          <t>thanh@gmail.com</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>28-09-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1394,12 +1394,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CUS023</t>
+          <t>CUS028</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Minh Quang</t>
+          <t>Minh Nguyên</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>quang@gmail.com</t>
+          <t>nguyen@gmail.com</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1434,29 +1434,29 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bạc</t>
+          <t>Bình thường</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>28-04-2023</t>
+          <t/>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>28-07-2024</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CUS024</t>
+          <t>CUS029</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hiếu Ngân</t>
+          <t>Thiên Quốc</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ngan@gmail.com</t>
+          <t>quoc@gmail.com</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1486,34 +1486,34 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Bình thường</t>
+          <t>Bạc</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t/>
+          <t>28-06-2023</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t/>
+          <t>28-07-2024</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CUS025</t>
+          <t>CUS030</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Diễm Quỳnh</t>
+          <t>Trung Kha</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>quynh2@gmail.com</t>
+          <t>kha@gmail.com</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1543,17 +1543,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Vàng</t>
+          <t>Bạch Kim</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>28-04-2023</t>
+          <t>28-06-2023</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CUS026</t>
+          <t>CUS033</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Minh Nghị</t>
+          <t>Thế Vũ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HCM</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>01234</t>
+          <t>012345678912</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>nghi@gmail.com</t>
+          <t>vuthe@gmail.com</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1605,245 +1605,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Bình thường</t>
+          <t>Bạch Kim</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t/>
+          <t>29-08-2023</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>CUS027</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Duy Thành</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>29-08-2003</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>01234</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>thanh@gmail.com</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0123456789</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Bạc</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>28-07-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>CUS028</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Minh Nguyên</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>29-08-2003</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>01234</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>nguyen@gmail.com</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0123456789</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Bình thường</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CUS029</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Thiên Quốc</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>29-08-2003</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>01234</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>quoc@gmail.com</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0123456789</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Bạc</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>28-06-2023</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>28-07-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>CUS030</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Trung Kha</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>12-07-2000</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>HCM</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>01234</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>kha@gmail.com</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0123456789</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Nam</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Bạch Kim</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>28-06-2023</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>28-06-2025</t>
+          <t>29-08-2024</t>
         </is>
       </c>
     </row>
